--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2703004.875459913</v>
+        <v>2766906.69298684</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4825699.337344272</v>
+        <v>4880816.785484738</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>403.1573758269971</v>
       </c>
       <c r="Y2" t="n">
-        <v>74.85450227886972</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.2209214285865</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>51.25395846644548</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>176.1898146723631</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>360.9100771515863</v>
       </c>
       <c r="D5" t="n">
-        <v>325.5800738246913</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>34.06158462964408</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1139,7 +1139,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1193,13 +1193,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.1725923451615</v>
+        <v>332.5012992073889</v>
       </c>
     </row>
     <row r="9">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>186.7964638450863</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1528,25 +1528,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>126.8355823247605</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>53.90045570694593</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>373.5457929318699</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>24.62703520776627</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>193.8659438253729</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1904,10 +1904,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430768</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864829</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011215</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561527</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>187.453773041968</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2564,7 +2564,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948708</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225762</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600833</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>103.5618256308041</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445362</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968881</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929903</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262808</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664179</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4997680892229</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600833</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>398.067815121084</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796143</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>64.34932400963449</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968881</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9098700929903</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353363</v>
+        <v>206.0370214115934</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>141.1114313885494</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600833</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897771</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758683</v>
+        <v>134.780682262288</v>
       </c>
       <c r="G43" t="n">
-        <v>12.80035831935961</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445362</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>85.03426481107839</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>75.87586757847396</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024376</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>94.21878984361673</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9098700929903</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>158.1741104148832</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146217</v>
+        <v>554.8743158913576</v>
       </c>
       <c r="C2" t="n">
-        <v>119.374415738449</v>
+        <v>520.7722471151849</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329762</v>
+        <v>488.9028663300335</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199686</v>
+        <v>459.1685255287327</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160866</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160866</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160866</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160866</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465157</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465157</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465157</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465157</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465157</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375618</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382469</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.029365327376</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080433</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080433</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080433</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.96112739745</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331276</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>670.4887227423094</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3462593216201</v>
+        <v>581.3792019958039</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591254</v>
+        <v>577.1334823358613</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929014</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295437</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>338.568663576097</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030507</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192123</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539619</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160866</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206625</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282785</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731856</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041186</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041186</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041186</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041186</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041186</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986093</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080433</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.727992528816</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859417</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.212801859386</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.095283921385</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545791</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>787.905093893459</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726645</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>854.5838762389026</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="C4" t="n">
-        <v>682.0221647221275</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>516.1441719236502</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>516.1441719236502</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854065</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112341</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160866</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160866</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662985</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374341</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374341</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823411</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823411</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245759</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216101</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080433</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080433</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080433</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080433</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080433</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080433</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>1519.213920310369</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.822165643782</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="Y4" t="n">
-        <v>1046.40249495789</v>
+        <v>992.2117929153466</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>500.4187672127682</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>135.8631337263174</v>
       </c>
       <c r="D5" t="n">
-        <v>1291.790603831868</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>674.5331706342555</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>674.5331706342555</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>674.5331706342555</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>674.5331706342555</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679034</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1922.734738723812</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2469.233524682407</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2159.002379407679</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1754.146924818712</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1335.004461398023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>926.718337697676</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970923</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>593.0357356940367</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>420.4740241772616</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>254.5960313787843</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>84.83802762952158</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>784.8543544130239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>866.1045910388293</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>832.0025222626567</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>771.6250763881362</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>770.8100258395735</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>351.6675624188842</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>888.3637574833331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1233.544589050298</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1233.544589050298</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.969308202876</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.826835386299</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2748761282467</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515106</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>96.74689019472683</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1217.302682725129</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2292.362648977989</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2292.362648977989</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2292.362648977989</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3272.542315548295</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4100.852190381691</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4647.350976340285</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093342</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4732.853167277179</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4732.853167277179</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.169870463959</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.552920397786</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.697465808819</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.55500238813</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.268878687783</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.0453846498019</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823244</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485367</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>805.823938239479</v>
+        <v>970.996046390399</v>
       </c>
       <c r="C13" t="n">
-        <v>633.2622267227042</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D13" t="n">
-        <v>467.3842339242269</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>412.9393291697361</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>236.2322751314923</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>236.2322751314923</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>96.33010082186684</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865567</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>2553.748342022663</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.868895601118</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.435894854224</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.480386724654</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.453982310946</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.062227644358</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y13" t="n">
-        <v>997.6425569584662</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.552518830016</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.410046013439</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.500261187884</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.725516346179</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>786.8580867553865</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>385.4602553786506</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>96.33010082186684</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3272.542315548295</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4100.852190381691</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4647.350976340285</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093342</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4732.853167277179</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4512.785940150217</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4512.785940150217</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4150.168990084044</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3745.313535495077</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3326.171072074388</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.852089314923</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.0453846498019</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823244</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485367</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.388261433748</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>1002.826549916973</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>836.948557118496</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E16" t="n">
-        <v>667.1905533692332</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F16" t="n">
-        <v>490.4834993309893</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G16" t="n">
-        <v>324.892224356817</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H16" t="n">
-        <v>184.9900500471915</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865567</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256533</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2553.748342022663</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.868895601118</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2112.044709918923</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.044709918923</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.018305505215</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1594.626550838627</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.206880152735</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5501,7 +5501,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5525,37 +5525,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136697</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5683,7 +5683,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
         <v>2203.220781338905</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5829,7 +5829,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5908,13 +5908,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2124.452389553093</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651774</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835198</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009642</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167937</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771592</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004231</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436393</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2608402707793</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236972</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236972</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538966</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538966</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722803</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595841</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912858</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846685</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257718</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837029</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136682</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620722</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987144</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>406.8858352452677</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722214</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>229.381582188383</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545669</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707793</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312369</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974492</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
         <v>1107.588885023173</v>
@@ -6324,7 +6324,7 @@
         <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655248</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6345,10 +6345,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626146</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418353</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309355</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324582</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831955</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449517</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707793</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707793</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707793</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354692</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066047</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
         <v>2203.220781338905</v>
@@ -6418,7 +6418,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,40 +6710,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
         <v>1107.588885023173</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995626</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625507</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.564984246409</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851162</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068275</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765493</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662231</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.126779330178</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.949291195803</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3529.12895776611</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4357.438832599505</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4903.9376185581</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.091683311157</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941452</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.906087260948</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024422</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404707</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262197</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034077</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941582</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266807</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>836.1321743895107</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C37" t="n">
-        <v>836.1321743895107</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D37" t="n">
-        <v>673.020934037491</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E37" t="n">
-        <v>506.0296827346858</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F37" t="n">
-        <v>401.4217780571057</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G37" t="n">
-        <v>238.597255529391</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H37" t="n">
-        <v>101.4618336662231</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.7532129036861</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475948</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883289</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872433</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170987</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214102</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151208</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2721.163927303037</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2564.689311047491</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2321.576617072404</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2045.910368771967</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1761.721613088855</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W37" t="n">
-        <v>1492.461961121604</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X37" t="n">
-        <v>1249.836958901474</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y37" t="n">
-        <v>1025.18404066204</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995627</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625508</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.56498424641</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851163</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068284</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765493</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.949291195804</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3529.12895776611</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4357.438832599506</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4903.937618558101</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.091683311158</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941452</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.906087260949</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024423</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404707</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262198</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034077</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941582</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>836.1321743895104</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C40" t="n">
-        <v>666.3372153191931</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>503.2259749671734</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>438.2266577857241</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>264.2863561939379</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>101.4618336662232</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>101.4618336662232</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.7532129036861</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475948</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883289</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872433</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170987</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214102</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151207</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2721.163927303037</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2564.689311047491</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2321.576617072404</v>
+        <v>2510.802246727525</v>
       </c>
       <c r="U40" t="n">
-        <v>2045.910368771967</v>
+        <v>2232.36924598063</v>
       </c>
       <c r="V40" t="n">
-        <v>1761.721613088855</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W40" t="n">
-        <v>1492.461961121604</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X40" t="n">
-        <v>1249.836958901474</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y40" t="n">
-        <v>1025.18404066204</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2214.546764549989</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.17104417987</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.634244797497</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5255752579151</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276365</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731038</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>530.7857816702283</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2421.566383503222</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2421.566383503222</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2421.566383503222</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3401.746050073528</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4230.055924906925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4776.554710865519</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865519</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4695.669589495814</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4478.36911481531</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.913564578785</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3862.063366959069</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3459.97466481656</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3043.598953842328</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2638.079582588439</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917987</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187524</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>222.651836134914</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2667464010979</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>121.594767377768</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1005.327120044314</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>835.5321609739964</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>672.4209206219766</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>505.4296693191715</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="F43" t="n">
-        <v>331.4893677273853</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>318.5597128593453</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>181.4242909961774</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.8224734547733</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.292622098682</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394162</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722075</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.97978776519</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2490.771562727207</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2215.10531442677</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1930.916558743658</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1661.656906776408</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.031904556277</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1194.378986316843</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2295.431885919695</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C44" t="n">
-        <v>1860.056165549575</v>
+        <v>2090.757574835216</v>
       </c>
       <c r="D44" t="n">
-        <v>1426.913133170478</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E44" t="n">
-        <v>995.9051407752302</v>
+        <v>1221.073045167955</v>
       </c>
       <c r="F44" t="n">
-        <v>570.8044636308955</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>172.1733847006174</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731038</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731038</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>95.53109421731038</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>929.8813861754884</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2004.941352428348</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2004.941352428348</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2421.566383503222</v>
+        <v>2588.89962142363</v>
       </c>
       <c r="O44" t="n">
-        <v>3401.746050073528</v>
+        <v>3569.079287993937</v>
       </c>
       <c r="P44" t="n">
-        <v>4230.055924906925</v>
+        <v>4397.389162827333</v>
       </c>
       <c r="Q44" t="n">
-        <v>4776.554710865519</v>
+        <v>4943.887948785928</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865519</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="S44" t="n">
-        <v>4776.554710865519</v>
+        <v>5029.390139722821</v>
       </c>
       <c r="T44" t="n">
-        <v>4559.254236185016</v>
+        <v>4809.32291259586</v>
       </c>
       <c r="U44" t="n">
-        <v>4302.79868594849</v>
+        <v>4550.100609912876</v>
       </c>
       <c r="V44" t="n">
-        <v>3942.948488328774</v>
+        <v>4187.483659846703</v>
       </c>
       <c r="W44" t="n">
-        <v>3540.859786186265</v>
+        <v>3782.628205257736</v>
       </c>
       <c r="X44" t="n">
-        <v>3124.484075212034</v>
+        <v>3363.485741837047</v>
       </c>
       <c r="Y44" t="n">
-        <v>2718.964703958145</v>
+        <v>2955.1996181367</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917987</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187524</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.651836134914</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2667464010979</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731038</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>121.594767377768</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>932.1933690619539</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C46" t="n">
-        <v>762.3984099916364</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D46" t="n">
-        <v>599.2871696396166</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E46" t="n">
-        <v>432.2959183368114</v>
+        <v>462.7983383258803</v>
       </c>
       <c r="F46" t="n">
-        <v>258.3556167450251</v>
+        <v>286.0912842876364</v>
       </c>
       <c r="G46" t="n">
-        <v>95.53109421731038</v>
+        <v>286.0912842876364</v>
       </c>
       <c r="H46" t="n">
-        <v>95.53109421731038</v>
+        <v>190.9207894961044</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731038</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>184.8224734547733</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.292622098682</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394161</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722075</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.97978776519</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2577.40964044675</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2417.637811744848</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U46" t="n">
-        <v>2141.97156344441</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V46" t="n">
-        <v>1857.782807761298</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.523155794047</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.898153573918</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1121.245235334483</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201082</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798446</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201083</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201083</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201081</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888893</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201083</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201081</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559775</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>52.91495433479349</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741953</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,16 +8617,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8690,7 +8690,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>692.6443378286308</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>839.9467364267402</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9875,28 +9875,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>239.9071053990956</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,13 +10428,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8611230965907</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8611230965917</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1067.101323105875</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>420.8333647220954</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>69.83361581106701</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>44.0005120768468</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>114.1599680048242</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>30.6574695314732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>113.876117358763</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>81.78272691405286</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>88.19489769745772</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796143</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.63907294506419</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.03426481107839</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>100.9720147801426</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445362</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.03426481107839</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>37.38363054573588</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>287.7001706667575</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>40.15930123557334</v>
       </c>
       <c r="G43" t="n">
-        <v>148.395918983078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968881</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929903</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>207.6239005107489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600825</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445362</v>
+        <v>44.28436272291249</v>
       </c>
       <c r="I46" t="n">
-        <v>85.03426481107839</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968881</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>82.5074566204531</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>421646.3195104178</v>
+        <v>423760.0399142969</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>421646.3195104178</v>
+        <v>424140.6199219512</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403421.1294752372</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403421.1294752373</v>
+        <v>421753.500886158</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>421753.500886158</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>422889.4195210296</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>422889.4195210296</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>404557.0481101089</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>404557.0481101091</v>
+        <v>421753.500886158</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931483</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931484</v>
+        <v>522743.6368931482</v>
       </c>
       <c r="E2" t="n">
-        <v>491357.7342884713</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>491357.7342884712</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="G2" t="n">
         <v>513686.1445339184</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="I2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="J2" t="n">
         <v>513686.1445339185</v>
@@ -26344,16 +26344,16 @@
         <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
-        <v>515214.2107678317</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="N2" t="n">
-        <v>515214.2107678317</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="O2" t="n">
-        <v>492885.8005223846</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="P2" t="n">
-        <v>492885.8005223846</v>
+        <v>513686.1445339184</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597112</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501602</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998291</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932542</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.0840231907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387724</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622429</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017869</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651098</v>
+        <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>130243.4307963244</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13626.00881505497</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>13626.00881505497</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049262</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049266</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="J4" t="n">
-        <v>14245.20557049322</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="K4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="L4" t="n">
-        <v>14245.20557049259</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>16824.05777198313</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>16824.05777198313</v>
+        <v>14245.2055704926</v>
       </c>
       <c r="O4" t="n">
-        <v>16204.86101654546</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>16204.86101654546</v>
+        <v>14245.20557049265</v>
       </c>
     </row>
     <row r="5">
@@ -26467,31 +26467,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722257</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461879</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461879</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579228</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663661</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663663</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546291</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546291</v>
+        <v>77718.23860579256</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145827.3082311047</v>
+        <v>145827.308231105</v>
       </c>
       <c r="C6" t="n">
-        <v>288018.6088908162</v>
+        <v>253956.2243938053</v>
       </c>
       <c r="D6" t="n">
-        <v>288018.6088908151</v>
+        <v>314872.6635562723</v>
       </c>
       <c r="E6" t="n">
-        <v>171680.6468555433</v>
+        <v>239344.3667972008</v>
       </c>
       <c r="F6" t="n">
-        <v>404520.8488487975</v>
+        <v>421699.4760182505</v>
       </c>
       <c r="G6" t="n">
-        <v>401403.6163344425</v>
+        <v>421699.4760182506</v>
       </c>
       <c r="H6" t="n">
-        <v>421722.7003576332</v>
+        <v>421699.4760182508</v>
       </c>
       <c r="I6" t="n">
-        <v>421722.7003576333</v>
+        <v>421699.4760182505</v>
       </c>
       <c r="J6" t="n">
-        <v>310708.2350126428</v>
+        <v>310685.0106732605</v>
       </c>
       <c r="K6" t="n">
-        <v>421722.7003576334</v>
+        <v>368653.6213794783</v>
       </c>
       <c r="L6" t="n">
-        <v>421722.7003576334</v>
+        <v>412307.1742916282</v>
       </c>
       <c r="M6" t="n">
-        <v>227009.7091774251</v>
+        <v>269499.3050802628</v>
       </c>
       <c r="N6" t="n">
-        <v>421048.887279212</v>
+        <v>421699.4760182507</v>
       </c>
       <c r="O6" t="n">
-        <v>403847.0357703762</v>
+        <v>421699.4760182506</v>
       </c>
       <c r="P6" t="n">
-        <v>403847.0357703763</v>
+        <v>421699.4760182505</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201082</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273335</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273335</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26811,7 +26811,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.260503384741</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="K4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.272920827789</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.272920827789</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.13867771638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.13867771638</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921993029</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201082</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="E4" t="n">
-        <v>779.8304027532311</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140959</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962749</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201082</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="M4" t="n">
-        <v>779.8304027532311</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140959</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>11.79366295948535</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.3487601844733</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>119.5821359351618</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>93.11632569720831</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72.85097093682464</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>105.9706131526086</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>140.8783988682173</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>230.0306701181816</v>
+        <v>71.70196325595424</v>
       </c>
     </row>
     <row r="9">
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-4.820566934132988e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921993029</v>
+        <v>-6.002665031701327e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921993029</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201082</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798446</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201083</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201083</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201081</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888893</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201083</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201081</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559775</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.018975715752</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>52.91495433479349</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741953</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>298.4303698644312</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>692.6443378286308</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35486,13 +35486,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,10 +35656,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>839.9467364267402</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831172</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>239.9071053990956</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,13 +37148,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8611230965907</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107371</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865517</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495385003</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8611230965917</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107369</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865517</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>1067.101323105875</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107369</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300346</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495385003</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>420.8333647220954</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107369</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865517</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495385003</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
